--- a/October/Others/Symphony Service Point.xlsx
+++ b/October/Others/Symphony Service Point.xlsx
@@ -670,7 +670,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G30"/>
+      <selection activeCell="K32" sqref="J32:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
